--- a/E-Mail_senden_Dispatcher/Data/Config.xlsx
+++ b/E-Mail_senden_Dispatcher/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timotheus.vrettos\develop\develop_RPA\uipath-rpa_lob\E-Mail_senden_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10FAA3-4DEF-4174-A383-D1C5620E96D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73F613B-B910-42E5-B176-6F54DF1E6B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="3120" windowWidth="39315" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28770" yWindow="8460" windowWidth="21255" windowHeight="10815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,6 @@
     <t>rpa001_EmailBodyHtmlPath</t>
   </si>
   <si>
-    <t>rpa001_EmailSubjetctLine</t>
-  </si>
-  <si>
     <t>rpa001_Send_Groupmailbox</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>rpa001_LoB_E-MailQueue</t>
+  </si>
+  <si>
+    <t>rpa001_EmailSubjectLine</t>
   </si>
 </sst>
 </file>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -715,10 +715,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -729,7 +729,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
@@ -743,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -2035,7 +2035,7 @@
         <v>65</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3017,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3131,50 +3131,50 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
